--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Station\Gitee\website-v2\data\compatibility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Station\Gitee\openEuler-portal\data\compatibility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781AEF1-1DCD-4180-AEF8-1A60E59FA8BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D6679-982C-499E-84F0-046E024843E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="502">
   <si>
     <t>vendorID</t>
   </si>
@@ -1541,12 +1541,80 @@
     <t>FPGA</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>35.100.00.00</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>19e5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>d801</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0200</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>npu</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.09.21</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huawei</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlas 300I(Model 9000)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://support.huawei.com/enterprise/zh/ascend-computing/a300t-9000-pid-250702906/software</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://support.huawei.com/enterprise/zh/ascend-computing/atlas-300i-pro-pid-251052354/software</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>d500</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlas 300I Pro</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>02313FUJ</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlas 300V Pro</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>02313SHF/02314BCJ</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1634,6 +1702,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1701,7 +1776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -1854,6 +1929,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2200,11 +2284,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ179"/>
+  <dimension ref="A1:AMJ185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2214,7 +2298,7 @@
     <col min="3" max="3" width="9.36328125" style="5"/>
     <col min="4" max="4" width="9" style="5"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
     <col min="8" max="8" width="19.36328125" style="5" customWidth="1"/>
     <col min="9" max="9" width="9" style="5" customWidth="1"/>
@@ -2223,7 +2307,7 @@
     <col min="12" max="12" width="14.6328125" style="5" customWidth="1"/>
     <col min="13" max="13" width="16.36328125" style="5" customWidth="1"/>
     <col min="14" max="14" width="33" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.36328125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="24.36328125" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="5" customWidth="1"/>
     <col min="17" max="17" width="14.453125" style="5" customWidth="1"/>
     <col min="18" max="18" width="18.7265625" style="5" customWidth="1"/>
@@ -15448,8 +15532,8 @@
       <c r="G136" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H136" s="4" t="s">
-        <v>104</v>
+      <c r="H136" s="62" t="s">
+        <v>485</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>105</v>
@@ -34717,6 +34801,266 @@
         <v>99</v>
       </c>
     </row>
+    <row r="180" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="B180" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="C180" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="D180" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="E180" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G180" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="I180" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="J180" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="M180" s="63" t="s">
+        <v>493</v>
+      </c>
+      <c r="N180" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="O180" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="P180" s="43"/>
+      <c r="Q180" s="66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="B181" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="C181" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="D181" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G181" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="I181" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="J181" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="M181" s="63" t="s">
+        <v>493</v>
+      </c>
+      <c r="N181" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="O181" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="P181" s="43"/>
+      <c r="Q181" s="66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="B182" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="C182" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="D182" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="E182" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G182" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="I182" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="J182" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="M182" s="63" t="s">
+        <v>493</v>
+      </c>
+      <c r="N182" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="O182" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="P182" s="64" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q182" s="66" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="B183" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="C183" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="D183" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="I183" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="J183" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="M183" s="63" t="s">
+        <v>493</v>
+      </c>
+      <c r="N183" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="O183" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="P183" s="64" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q183" s="66" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="B184" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="C184" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="D184" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="E184" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G184" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="I184" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="J184" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="M184" s="63" t="s">
+        <v>493</v>
+      </c>
+      <c r="N184" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="O184" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="P184" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q184" s="66" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="B185" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="C185" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="D185" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G185" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="I185" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="J185" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="M185" s="63" t="s">
+        <v>493</v>
+      </c>
+      <c r="N185" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="O185" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="P185" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q185" s="66" t="s">
+        <v>496</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U179" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -34738,9 +35082,15 @@
     <hyperlink ref="Q158" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="Q157" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="Q159" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q180" r:id="rId13" xr:uid="{0A75A04C-8387-41D6-AC48-37FDE2924DAF}"/>
+    <hyperlink ref="Q182" r:id="rId14" xr:uid="{78132BB2-B1E4-4B70-BA0F-02B142EE628E}"/>
+    <hyperlink ref="Q183" r:id="rId15" xr:uid="{4B5A2A76-28D4-4E3A-AD2C-F61EE145202E}"/>
+    <hyperlink ref="Q184" r:id="rId16" xr:uid="{40DDF217-DD6A-460D-90A3-E05FEE22FCD8}"/>
+    <hyperlink ref="Q185" r:id="rId17" xr:uid="{C42C67E8-1004-4FA8-909A-4D1DFF03E1A5}"/>
+    <hyperlink ref="Q181" r:id="rId18" xr:uid="{75957F00-4FA6-43E3-B1CC-32215C999C14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9750" tabRatio="500"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler22.03-LTS两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
     <sheet name="板卡问题记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$207</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="532">
   <si>
     <t>vendorID</t>
   </si>
@@ -1614,6 +1614,15 @@
     </r>
   </si>
   <si>
+    <t>2022.10.28</t>
+  </si>
+  <si>
+    <t>36BAA5BE289FB9E453D2EBB7F32A0ED839EDB7E8</t>
+  </si>
+  <si>
+    <t>567K</t>
+  </si>
+  <si>
     <t>板卡</t>
   </si>
   <si>
@@ -1636,7 +1645,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1686,12 +1695,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1851,13 +1854,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -2196,44 +2192,47 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2245,97 +2244,94 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -2345,7 +2341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
@@ -2446,15 +2442,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2471,12 +2467,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2866,12 +2865,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ206"/>
+  <dimension ref="A1:AMJ207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S206" sqref="S206"/>
+      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15491,7 +15490,7 @@
       <c r="P204" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="Q204" s="56" t="s">
+      <c r="Q204" s="57" t="s">
         <v>524</v>
       </c>
       <c r="R204" s="44"/>
@@ -17615,8 +17614,58 @@
       <c r="AMI206" s="5"/>
       <c r="AMJ206" s="5"/>
     </row>
+    <row r="207" spans="1:17">
+      <c r="A207" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J207" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="K207" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="L207" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="M207" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="N207" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="O207" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="P207" s="56">
+        <v>6310148</v>
+      </c>
+      <c r="Q207" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U206">
+  <autoFilter ref="A1:U207">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
@@ -17674,27 +17723,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
